--- a/Hackerrank Links.xlsx
+++ b/Hackerrank Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C-DAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F472AD9-F709-4DEB-BAC0-0015058D47C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5045A290-FB2C-4781-A8EC-1A0771B809D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="17280" windowHeight="8880" xr2:uid="{89E1B4A4-67B6-44A3-A77B-F9337037539B}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{89E1B4A4-67B6-44A3-A77B-F9337037539B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>1. Logic Building 20-08-2024 to 24-08-2024</t>
-  </si>
-  <si>
-    <t>2. Concepts of Operating System(COS) 27-08-2024 to 31-08-2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Start Date</t>
   </si>
@@ -61,6 +55,18 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/os-challenge1</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/oopj-challenge</t>
+  </si>
+  <si>
+    <t>2. Object Oriented Programming in Java (OOPJ) 03-09-2024 to 23-09-2024</t>
+  </si>
+  <si>
+    <t>0. Logic Building 20-08-2024 to 24-08-2024</t>
+  </si>
+  <si>
+    <t>1. Concepts of Operating System(COS) 27-08-2024 to 31-08-2024</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -134,6 +140,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CB79AD-7A42-457B-A4E6-0E980539B2A5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,18 +471,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -487,7 +494,7 @@
         <v>45535</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -495,7 +502,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -508,7 +515,7 @@
         <v>45537</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -519,7 +526,7 @@
         <v>45538</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -530,17 +537,28 @@
         <v>45537</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
+      <c r="A12" s="5">
+        <v>45541</v>
+      </c>
+      <c r="B12" s="5">
+        <v>45544</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -549,8 +567,9 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{DB3BB174-CF88-43A7-81CD-CBD80E489B2B}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{9A988764-E79F-4F39-A31A-C44B2F15F42C}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{5F22F672-5986-48E3-A4C0-DB6A794E049D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>